--- a/master_table/MT_OntoWorldMap_2023-10-11.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-10-11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Documents\GitHub\Ontology-Overview-of-NFDI4Cat\master_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smmagack\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -2249,7 +2249,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2540,7 +2540,7 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3062,7 +3062,7 @@
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3549,7 +3549,7 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4039,7 +4039,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4545,7 +4545,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5045,7 +5045,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5546,7 +5546,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6048,7 +6048,7 @@
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6549,7 +6549,7 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -7050,7 +7050,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -7550,7 +7550,7 @@
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -8047,7 +8047,7 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -9018,7 +9018,7 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9497,7 +9497,7 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9979,7 +9979,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10466,7 +10466,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10996,7 +10996,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11478,7 +11478,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11965,7 +11965,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -12464,7 +12464,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
@@ -12956,7 +12956,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -13440,7 +13440,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -13934,11 +13934,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="38">
-        <v>85</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="28.5">
@@ -14433,7 +14433,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -14913,7 +14913,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -15394,12 +15394,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15535,15 +15532,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15567,17 +15575,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-10-11.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-10-11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smmagack\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaxbehr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="4740" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -2249,7 +2249,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2540,7 +2540,7 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3062,7 +3062,7 @@
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3549,7 +3549,7 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4039,7 +4039,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -4545,7 +4545,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5045,7 +5045,7 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -5546,7 +5546,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6048,7 +6048,7 @@
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -6549,7 +6549,7 @@
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -7050,7 +7050,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -7550,7 +7550,7 @@
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -8047,7 +8047,7 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -9018,7 +9018,7 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9497,7 +9497,7 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9979,7 +9979,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10466,7 +10466,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10996,7 +10996,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11478,7 +11478,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11965,7 +11965,7 @@
       <selection activeCell="A72" sqref="A72:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -12464,7 +12464,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
@@ -12956,7 +12956,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -13440,7 +13440,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -13935,10 +13935,10 @@
   <dimension ref="A1:A130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="38">
-        <v>8666</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="28.5">
@@ -14433,7 +14433,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5703125" customWidth="1"/>
@@ -14913,7 +14913,7 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -15394,9 +15394,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15532,26 +15535,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15575,9 +15567,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>